--- a/forecast_summary_B087GFYBCW.xlsx
+++ b/forecast_summary_B087GFYBCW.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-0.0181562403099331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2682409404606468</v>
+        <v>0.269555925878372</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.02133159964505837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2679638884415775</v>
+        <v>0.2540848637665518</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.01329866415962026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2479177947371971</v>
+        <v>0.2673624820071878</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.002149073911091652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2874013384211344</v>
+        <v>0.2705330391060335</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.002218383417893519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2684758427658024</v>
+        <v>0.282531658080015</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.001485170902085535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2673013932295181</v>
+        <v>0.2632671067003197</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.005891472686877957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2822992052738927</v>
+        <v>0.2754365918442915</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.005401012484238341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2576331446286499</v>
+        <v>0.272881314438824</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.004133205776853765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2894047724299608</v>
+        <v>0.276579656254302</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.01091796851244997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2556223995729491</v>
+        <v>0.2591719024214557</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.02676500095711208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2678902965711418</v>
+        <v>0.2523793607236643</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-0.04040647568709226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2468308938492682</v>
+        <v>0.209234484050024</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.03874848397045406</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2580588929303733</v>
+        <v>0.2435277700968408</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.02115810324003487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2660873130983528</v>
+        <v>0.2431118818326443</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.00107770584503759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2697664792536801</v>
+        <v>0.2797231410740945</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>0.007367844104379711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2905365755983197</v>
+        <v>0.2764924075415433</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.002891067485315044</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2817402744278123</v>
+        <v>0.2646556719728498</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-0.003987746656064377</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2550040194900191</v>
+        <v>0.2623982349830212</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.004059993642313999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2645851792233342</v>
+        <v>0.2856107268897695</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.001198710004630721</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2552375513458562</v>
+        <v>0.2874118983337287</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z490 AORUS ELITE AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
